--- a/每日计划学习书.xlsx
+++ b/每日计划学习书.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\每日学习计划\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12645" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>事项</t>
   </si>
@@ -48,28 +54,31 @@
   </si>
   <si>
     <t>练习发音</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <name val="等线"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="等线"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,20 +107,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -368,94 +386,98 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="29.441406" style="0"/>
-    <col min="2" max="2" customWidth="1" width="27.554688" style="0"/>
-    <col min="3" max="3" customWidth="1" width="8.886719" style="0"/>
-    <col min="6" max="6" customWidth="1" width="4.8867188" style="0"/>
-    <col min="12" max="12" customWidth="1" width="4.8867188" style="0"/>
-    <col min="13" max="13" customWidth="1" width="11.332031" style="0"/>
-    <col min="257" max="16384" width="9" style="0" hidden="0"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="5" width="10"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="11" width="10"/>
+    <col min="12" max="12" width="4.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>11.28</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>11.29</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>11.3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
         <v>12.03</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>12.04</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>12.05</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>12.06</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>12.07</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1">
         <v>12.1</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>12.11</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>12.12</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>12.13</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>12.14</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="8:8" ht="14.95">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="8:8">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -463,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -471,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="8:8">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -484,6 +506,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/每日计划学习书.xlsx
+++ b/每日计划学习书.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\每日学习计划\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王海涛\Desktop\学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>事项</t>
   </si>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>练习发音</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -63,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -78,6 +82,11 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -103,7 +112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +124,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,10 +411,10 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" customWidth="1"/>
@@ -415,7 +427,7 @@
     <col min="14" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -464,20 +476,23 @@
         <v>12.14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -485,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -493,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>2</v>
       </c>
